--- a/app/data/section_3.xlsx
+++ b/app/data/section_3.xlsx
@@ -334,7 +334,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C1" t="n">
+      <c r="C1" s="6" t="n">
         <v>603789543</v>
       </c>
     </row>
@@ -349,7 +349,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>dggdfg gdf gfg</t>
         </is>
@@ -506,6 +506,11 @@
           <t>3.2. Проверка проведенного монтажа (датчиков, извещателей, приемо-передающих приборов охранной, охранно-пожарной, тревожной сигнализации, а также объектовых оконечных устройств к системам охраны и безопасности объектов капитального строительства) и соединений в коммутирующих узловых устройствах в соответствии с технической документацией и проектной документацией</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="52.5" customHeight="1" s="7">
       <c r="A21" s="11" t="inlineStr">
@@ -516,6 +521,11 @@
       <c r="B21" s="10" t="inlineStr">
         <is>
           <t>Читать рабочие чертежи, электрические схемы, спецификации монтируемого слаботочного электрооборудования систем охраны и безопасности</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -526,6 +536,11 @@
           <t>Пользоваться ручным и механизированным инструментом для обрезки, зачистки, пайки и подключения объектовых датчиков, извещателей, приемо-передающих приборов, оконечных систем охраны и безопасности объектов капитального строительства к смонтированным слаботочным сетям через соединительные и коммутационные устройства согласно проектной документации</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="52.5" customHeight="1" s="7">
       <c r="A23" s="11" t="n"/>
@@ -534,6 +549,11 @@
           <t>Пользоваться измерительными приборами для проведения необходимых измерений и проверки электрического сопротивления цепи</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="52.5" customHeight="1" s="7">
       <c r="A24" s="11" t="n"/>
@@ -542,6 +562,11 @@
           <t>Выявлять неисправности в собранных слаботочных цепях и узлах комплексов средств охраны и безопасности</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="52.5" customHeight="1" s="7">
       <c r="A25" s="11" t="n"/>
@@ -550,6 +575,11 @@
           <t>Применять требования нормативных правовых актов, нормативно-технических и методических документов по монтажу слаботочного электрооборудования систем охраны и безопасности объектов капитального строительства</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="52.5" customHeight="1" s="7">
       <c r="A26" s="11" t="n"/>
@@ -558,6 +588,11 @@
           <t>Применять средства индивидуальной защиты, пожаротушения и первой помощи пострадавшим</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="52.5" customHeight="1" s="7">
       <c r="A27" s="11" t="n"/>
@@ -566,6 +601,11 @@
           <t>Пользоваться стандартными компьютерными офисными приложениями, браузерами, электронными словарями и профессиональными ресурсами информационно-телекоммуникационной сети "Интернет"</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="52.5" customHeight="1" s="7">
       <c r="A28" s="11" t="n"/>
@@ -574,6 +614,11 @@
           <t>Соблюдать требования охраны труда, правила технической эксплуатации электроустановок потребителей, пожарной и экологической безопасности при выполнении работ</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="52.5" customHeight="1" s="7">
       <c r="A29" s="11" t="inlineStr">
@@ -584,6 +629,11 @@
       <c r="B29" s="10" t="inlineStr">
         <is>
           <t>Условные изображения на чертежах и схемах монтируемого слаботочного электрооборудования систем охраны и безопасности</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -594,6 +644,11 @@
           <t>Правила пользования ручным и механизированным инструментом для устранения выявленных недостатков при обрезке, зачистке, пайке и подключении объектовых датчиков, извещателей, приемо-передающих приборов, оконечных устройств систем охраны и безопасности объектов капитального строительства к смонтированным слаботочным сетям через соединительные и коммутационные устройства согласно проектной документации</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="52.5" customHeight="1" s="7">
       <c r="A31" s="11" t="n"/>
@@ -602,6 +657,11 @@
           <t>Правила монтажа слаботочных линий связи, коммутирующих узлов и слаботочного электрооборудования</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="52.5" customHeight="1" s="7">
       <c r="A32" s="11" t="n"/>
@@ -610,6 +670,11 @@
           <t>Требования нормативных правовых актов, нормативно-технических и методических документов по монтажу слаботочного электрооборудования систем охраны и безопасности объектов капитального строительства</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="52.5" customHeight="1" s="7">
       <c r="A33" s="11" t="n"/>
@@ -618,6 +683,11 @@
           <t>Правила по охране труда и правила технической эксплуатации электроустановок потребителей</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="52.5" customHeight="1" s="7">
       <c r="A34" s="11" t="n"/>
@@ -626,6 +696,11 @@
           <t>Требования охраны труда, пожарной и экологической безопасности при выполнении работ по монтажу слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="52.5" customHeight="1" s="7">
       <c r="A35" s="11" t="n"/>
@@ -634,6 +709,11 @@
           <t>Требования, предъявляемые к рациональной организации труда на рабочем месте</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="52.5" customHeight="1" s="7">
       <c r="A36" s="11" t="n"/>
@@ -642,12 +722,22 @@
           <t>Правила применения средств индивидуальной защиты, пожаротушения и первой помощи пострадавшим</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="52.5" customHeight="1" s="7">
       <c r="A37" s="11" t="n"/>
       <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Стандартные компьютерные офисные приложения, браузеры, электронные словари и профессиональные ресурсы информационно-телекоммуникационной сети "Интернет"</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Нет</t>
         </is>
       </c>
     </row>
